--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Btc-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Btc-Erbb3.xlsx
@@ -543,10 +543,10 @@
         <v>1.912506</v>
       </c>
       <c r="I2">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J2">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,10 +561,10 @@
         <v>0.614446</v>
       </c>
       <c r="O2">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P2">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q2">
         <v>0.1305701846306667</v>
@@ -573,10 +573,10 @@
         <v>1.175131661676</v>
       </c>
       <c r="S2">
-        <v>0.03857519268560261</v>
+        <v>0.03276085932854448</v>
       </c>
       <c r="T2">
-        <v>0.03857519268560261</v>
+        <v>0.03276085932854448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1.912506</v>
       </c>
       <c r="I3">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J3">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N3">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O3">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P3">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q3">
-        <v>0.4488910832813335</v>
+        <v>0.4131862962666667</v>
       </c>
       <c r="R3">
-        <v>4.040019749532001</v>
+        <v>3.7186766664</v>
       </c>
       <c r="S3">
-        <v>0.1326187910464159</v>
+        <v>0.1036709733295064</v>
       </c>
       <c r="T3">
-        <v>0.1326187910464159</v>
+        <v>0.1036709733295064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>1.912506</v>
       </c>
       <c r="I4">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J4">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N4">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O4">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P4">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q4">
-        <v>1.048281301215333</v>
+        <v>1.20373446391</v>
       </c>
       <c r="R4">
-        <v>9.434531710938002</v>
+        <v>10.83361017519</v>
       </c>
       <c r="S4">
-        <v>0.309700513156801</v>
+        <v>0.3020243522870407</v>
       </c>
       <c r="T4">
-        <v>0.309700513156801</v>
+        <v>0.3020243522870407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.912506</v>
       </c>
       <c r="I5">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J5">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N5">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O5">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P5">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q5">
-        <v>0.4653817725166666</v>
+        <v>0.254348635454</v>
       </c>
       <c r="R5">
-        <v>4.18843595265</v>
+        <v>2.289137719086</v>
       </c>
       <c r="S5">
-        <v>0.1374907418410843</v>
+        <v>0.06381763103181413</v>
       </c>
       <c r="T5">
-        <v>0.1374907418410843</v>
+        <v>0.06381763103181413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.393412</v>
+        <v>0.63173</v>
       </c>
       <c r="H6">
-        <v>1.180236</v>
+        <v>1.89519</v>
       </c>
       <c r="I6">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="J6">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>0.614446</v>
       </c>
       <c r="O6">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P6">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q6">
-        <v>0.08057680991733335</v>
+        <v>0.1293879905266667</v>
       </c>
       <c r="R6">
-        <v>0.7251912892560001</v>
+        <v>1.16449191474</v>
       </c>
       <c r="S6">
-        <v>0.02380532720654727</v>
+        <v>0.03246423958453684</v>
       </c>
       <c r="T6">
-        <v>0.02380532720654727</v>
+        <v>0.03246423958453685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.393412</v>
+        <v>0.63173</v>
       </c>
       <c r="H7">
-        <v>1.180236</v>
+        <v>1.89519</v>
       </c>
       <c r="I7">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="J7">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N7">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O7">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P7">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q7">
-        <v>0.2770173879546668</v>
+        <v>0.4094452706666667</v>
       </c>
       <c r="R7">
-        <v>2.493156491592001</v>
+        <v>3.685007436</v>
       </c>
       <c r="S7">
-        <v>0.08184103551542203</v>
+        <v>0.1027323270851685</v>
       </c>
       <c r="T7">
-        <v>0.08184103551542203</v>
+        <v>0.1027323270851685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.393412</v>
+        <v>0.63173</v>
       </c>
       <c r="H8">
-        <v>1.180236</v>
+        <v>1.89519</v>
       </c>
       <c r="I8">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="J8">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N8">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O8">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P8">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q8">
-        <v>0.6469100383586668</v>
+        <v>1.19283574465</v>
       </c>
       <c r="R8">
-        <v>5.822190345228001</v>
+        <v>10.73552170185</v>
       </c>
       <c r="S8">
-        <v>0.1911208094751756</v>
+        <v>0.2992897968481545</v>
       </c>
       <c r="T8">
-        <v>0.1911208094751756</v>
+        <v>0.2992897968481545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.393412</v>
+        <v>0.63173</v>
       </c>
       <c r="H9">
-        <v>1.180236</v>
+        <v>1.89519</v>
       </c>
       <c r="I9">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="J9">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N9">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O9">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P9">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q9">
-        <v>0.2871940384333334</v>
+        <v>0.25204574021</v>
       </c>
       <c r="R9">
-        <v>2.5847463459</v>
+        <v>2.26841166189</v>
       </c>
       <c r="S9">
-        <v>0.08484758907295137</v>
+        <v>0.06323982050523441</v>
       </c>
       <c r="T9">
-        <v>0.08484758907295137</v>
+        <v>0.06323982050523443</v>
       </c>
     </row>
   </sheetData>
